--- a/biology/Médecine/Codéinone/Codéinone.xlsx
+++ b/biology/Médecine/Codéinone/Codéinone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cod%C3%A9inone</t>
+          <t>Codéinone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La codéinone est un analgésique trois fois moins actif que la codéine ; mais c'est un produit intermédiaire important de la synthèse de l'hydrocodone, un analgésique possédant, comme l'oxycodone, 75 % de l'activité de la morphine[2]. On peut synthétiser cette dernière à partir de thébaïne[3].
+La codéinone est un analgésique trois fois moins actif que la codéine ; mais c'est un produit intermédiaire important de la synthèse de l'hydrocodone, un analgésique possédant, comme l'oxycodone, 75 % de l'activité de la morphine. On peut synthétiser cette dernière à partir de thébaïne.
 On peut décrire la codéinone comme un méthyléther de la morphinone : 3-méthyl-morphinone, ou comme un dérivé cétonique de la codéine : codéine-6-one.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cod%C3%A9inone</t>
+          <t>Codéinone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Activité apoptotique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre du regain d'intérêt pour l'activité anti-tumeur possible de certains alcaloïdes de l'opium et de ses dérivés, indépendante de leurs effets antinocicepteurs et d'accoutumance, le rôle de ce produit d'oxydation de la codéine a été reconnu in vitro dans trois types de cancer humains[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre du regain d'intérêt pour l'activité anti-tumeur possible de certains alcaloïdes de l'opium et de ses dérivés, indépendante de leurs effets antinocicepteurs et d'accoutumance, le rôle de ce produit d'oxydation de la codéine a été reconnu in vitro dans trois types de cancer humains.
 </t>
         </is>
       </c>
